--- a/Data/delta_AIC.xlsx
+++ b/Data/delta_AIC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9ADEB948-6009-9343-98B5-C7310675C3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BBC819BB-CAA3-6D48-92F7-A110113E4F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
@@ -20,21 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>SLA</t>
   </si>
   <si>
     <t>Date of Flowering</t>
-  </si>
-  <si>
-    <t>Water Content</t>
-  </si>
-  <si>
-    <t>Assimilation</t>
-  </si>
-  <si>
-    <t>Stomatal Conductance</t>
   </si>
   <si>
     <t>lag 0</t>
@@ -533,18 +524,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,137 +884,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9571439410574398</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.4419330270356996</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.4324533371400299</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.9395854942158604</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.4545487711802698</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.4696803600745607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="1">
+        <v>8.0882099968330294</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.9713367586773498</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.7092498789497799</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.9909307632660802</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.55049903071267</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.0927274150271797</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1">
+        <v>3.88833653505935</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.6863822517661902</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.9208067359832102</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.0750563486944902</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.7596592004447302</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.9086570846593496</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.14</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.58</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>12.8722232803339</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10.230383398058599</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.9440883768948001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.8719344783166898</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.8878214057076503</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7634184981216099</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14.2414135370236</v>
+      </c>
+      <c r="I6" s="1">
+        <v>12.7171102310203</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.83</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.55</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.91</v>
+      <c r="B7" s="1">
+        <v>11.7397218319893</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13.7099667917137</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.46062155616164</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.1150561445101603</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14.009124790558401</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14.756276942640399</v>
       </c>
     </row>
   </sheetData>

--- a/Data/delta_AIC.xlsx
+++ b/Data/delta_AIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BBC819BB-CAA3-6D48-92F7-A110113E4F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B900CF6-B14D-2547-92CA-43BC747BC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="delta_AIC" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>SLA</t>
-  </si>
-  <si>
-    <t>Date of Flowering</t>
   </si>
   <si>
     <t>lag 0</t>
@@ -42,6 +39,21 @@
   <si>
     <t>lag 0,1,2</t>
   </si>
+  <si>
+    <t>SPEI</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>MAPA</t>
+  </si>
+  <si>
+    <t>CMDA</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +375,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,6 +497,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -524,9 +560,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,99 +933,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2.9571439410574398</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>7.4419330270356996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>3.4324533371400299</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>9.9395854942158604</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>6.4545487711802698</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>8.4696803600745607</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>8.0882099968330294</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>3.9713367586773498</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>3.7092498789497799</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>5.9909307632660802</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>5.55049903071267</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>5.0927274150271797</v>
       </c>
       <c r="I4" s="1">
@@ -985,92 +1053,98 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>3.88833653505935</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3.6863822517661902</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2.9208067359832102</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>5.0750563486944902</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>4.7596592004447302</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>6.9086570846593496</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>12.8722232803339</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>10.230383398058599</v>
       </c>
       <c r="D6" s="1">
         <v>1.9440883768948001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>7.8719344783166898</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>6.8878214057076503</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>2.7634184981216099</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>14.2414135370236</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>12.7171102310203</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>11.7397218319893</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>13.7099667917137</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>1.46062155616164</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>6.1150561445101603</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <v>14.009124790558401</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>14.756276942640399</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>